--- a/ARCHERY-SHEETS/Archery.xlsx
+++ b/ARCHERY-SHEETS/Archery.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\corey-richardson\ARCHERY-SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EF58BF-2339-4067-A836-18A5978EA888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63959AA9-3B10-45BE-BC09-10D6DF3F1F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B4E75A46-3142-4F81-B4EF-75C42D0D0353}"/>
   </bookViews>
   <sheets>
-    <sheet name="24-25-Indoors" sheetId="2" r:id="rId1"/>
-    <sheet name="24-Outdoors" sheetId="1" r:id="rId2"/>
+    <sheet name="25-Outdoors" sheetId="3" r:id="rId1"/>
+    <sheet name="24-25-Indoors" sheetId="2" r:id="rId2"/>
+    <sheet name="24-Outdoors" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'24-25-Indoors'!$J$1</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="246">
   <si>
     <t>Swansea SWWU</t>
   </si>
@@ -435,9 +436,6 @@
     <t>Easter Shoot</t>
   </si>
   <si>
-    <t>Star Wars Day Shoot</t>
-  </si>
-  <si>
     <t>Exmouth Archers Indoor Shoot</t>
   </si>
   <si>
@@ -711,13 +709,79 @@
     <t>IB1 achieved!</t>
   </si>
   <si>
-    <t>SWWU Leg 7</t>
-  </si>
-  <si>
     <t>Bray I + H2Hs</t>
   </si>
   <si>
     <t>VEGAS</t>
+  </si>
+  <si>
+    <t>Uni Head 2 Heads CTD</t>
+  </si>
+  <si>
+    <t>Uni Portsmouth CTD</t>
+  </si>
+  <si>
+    <t>Valentines Shoot</t>
+  </si>
+  <si>
+    <t>Exmouth Archers Open</t>
+  </si>
+  <si>
+    <t>WA 50m</t>
+  </si>
+  <si>
+    <t>SWWU Leg 8: Outdoor Championships</t>
+  </si>
+  <si>
+    <t>SWWU Leg 7: Exeter</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>SWWU Clout</t>
+  </si>
+  <si>
+    <t>Lilleshall</t>
+  </si>
+  <si>
+    <t>WA 50m + H2Hs</t>
+  </si>
+  <si>
+    <t>Exmouth Archers WRS</t>
+  </si>
+  <si>
+    <t>90m</t>
+  </si>
+  <si>
+    <t>Star Wars Shoot</t>
+  </si>
+  <si>
+    <t>Num Arrows</t>
+  </si>
+  <si>
+    <t>SWWU Leg 6</t>
+  </si>
+  <si>
+    <t>British Target Championships</t>
+  </si>
+  <si>
+    <t>GNAM</t>
+  </si>
+  <si>
+    <t>Yorks</t>
+  </si>
+  <si>
+    <t>Entries Open: 6th March 2025</t>
+  </si>
+  <si>
+    <t>Redruth Double American</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Redruth WRS Double WA 1440 Star</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1284,263 +1348,38 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="59">
     <dxf>
       <fill>
         <patternFill>
@@ -1621,7 +1460,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1629,6 +1468,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1649,7 +1495,42 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1685,6 +1566,230 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2153,39 +2258,6 @@
                 <c:pt idx="116">
                   <c:v>45755</c:v>
                 </c:pt>
-                <c:pt idx="117">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>45774</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>45776</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>45779</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>45781</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2272,6 +2344,21 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5742,12 +5829,2170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00389545-7166-440B-8152-40EDB8A80F3C}">
+  <dimension ref="A1:S108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70:C71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="13.7109375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="35.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28" style="3" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="3"/>
+    <col min="13" max="16" width="13.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="114.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45755</v>
+      </c>
+      <c r="B2" s="44" t="str">
+        <f t="shared" ref="B2:B85" si="0">TEXT(A2, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45758</v>
+      </c>
+      <c r="B3" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B4" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B5" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45765</v>
+      </c>
+      <c r="B6" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45767</v>
+      </c>
+      <c r="B7" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45769</v>
+      </c>
+      <c r="B8" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45772</v>
+      </c>
+      <c r="B9" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45774</v>
+      </c>
+      <c r="B10" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45776</v>
+      </c>
+      <c r="B11" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45779</v>
+      </c>
+      <c r="B12" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="S12" s="3">
+        <f>SUM(M1:M1009)</f>
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45781</v>
+      </c>
+      <c r="B13" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="S13" s="3" t="e">
+        <f>_xlfn.FLOOR.MATH(AVERAGE(SMALL(P1:P110, 1), SMALL(P1:P110, 2), SMALL(P1:P110, 3)))</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45783</v>
+      </c>
+      <c r="B14" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B15" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45787</v>
+      </c>
+      <c r="B16" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="3">
+        <v>90</v>
+      </c>
+      <c r="O16" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="83">
+        <v>45788</v>
+      </c>
+      <c r="B17" s="97" t="str">
+        <f>TEXT(A17, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="92"/>
+      <c r="F17" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="92"/>
+      <c r="H17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="3">
+        <v>72</v>
+      </c>
+      <c r="O17" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="83"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="3">
+        <v>72</v>
+      </c>
+      <c r="O18" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B19" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45793</v>
+      </c>
+      <c r="B20" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45794</v>
+      </c>
+      <c r="B21" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
+        <v>72</v>
+      </c>
+      <c r="O21" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="83">
+        <v>45795</v>
+      </c>
+      <c r="B22" s="97" t="str">
+        <f>TEXT(A22, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="3">
+        <v>72</v>
+      </c>
+      <c r="O22" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="83"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="81"/>
+      <c r="F23" s="80"/>
+      <c r="H23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="3">
+        <v>72</v>
+      </c>
+      <c r="O23" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B24" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45800</v>
+      </c>
+      <c r="B25" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45801</v>
+      </c>
+      <c r="B26" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" s="103" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45802</v>
+      </c>
+      <c r="B27" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C27" s="100"/>
+      <c r="D27" s="81"/>
+      <c r="F27" s="103"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45804</v>
+      </c>
+      <c r="B28" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45807</v>
+      </c>
+      <c r="B29" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B30" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45811</v>
+      </c>
+      <c r="B31" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45814</v>
+      </c>
+      <c r="B32" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45814</v>
+      </c>
+      <c r="B33" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C33" s="98"/>
+      <c r="D33" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="101"/>
+      <c r="F33" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q33" s="71" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B34" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C34" s="98"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="71"/>
+      <c r="H34" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q34" s="71"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45816</v>
+      </c>
+      <c r="B35" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C35" s="98"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="71"/>
+      <c r="H35" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q35" s="71"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45816</v>
+      </c>
+      <c r="B36" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45818</v>
+      </c>
+      <c r="B37" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B38" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>45822</v>
+      </c>
+      <c r="B39" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C39" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="3">
+        <v>72</v>
+      </c>
+      <c r="O39" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45823</v>
+      </c>
+      <c r="B40" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C40" s="100"/>
+      <c r="D40" s="81"/>
+      <c r="F40" s="102"/>
+      <c r="H40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="3">
+        <v>90</v>
+      </c>
+      <c r="O40" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="83">
+        <v>45823</v>
+      </c>
+      <c r="B41" s="97" t="str">
+        <f>TEXT(A41, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C41" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M41" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="83"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="81"/>
+      <c r="F42" s="76"/>
+      <c r="H42" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M42" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45825</v>
+      </c>
+      <c r="B43" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B44" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45830</v>
+      </c>
+      <c r="B45" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45832</v>
+      </c>
+      <c r="B46" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45835</v>
+      </c>
+      <c r="B47" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45837</v>
+      </c>
+      <c r="B48" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B49" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45842</v>
+      </c>
+      <c r="B50" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="83">
+        <v>45843</v>
+      </c>
+      <c r="B51" s="97" t="str">
+        <f>TEXT(A51, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C51" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="102" t="s">
+        <v>234</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="3">
+        <v>72</v>
+      </c>
+      <c r="O51" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="83"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="81"/>
+      <c r="F52" s="102"/>
+      <c r="H52" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="3">
+        <v>72</v>
+      </c>
+      <c r="O52" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>45844</v>
+      </c>
+      <c r="B53" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C53" s="99"/>
+      <c r="D53" s="81"/>
+      <c r="F53" s="102"/>
+      <c r="H53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="3">
+        <v>144</v>
+      </c>
+      <c r="O53" s="3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45846</v>
+      </c>
+      <c r="B54" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B55" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B56" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B57" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B58" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45858</v>
+      </c>
+      <c r="B59" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45860</v>
+      </c>
+      <c r="B60" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B61" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45865</v>
+      </c>
+      <c r="B62" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45867</v>
+      </c>
+      <c r="B63" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B64" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>45871</v>
+      </c>
+      <c r="B65" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C65" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="101"/>
+      <c r="F65" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="3">
+        <v>144</v>
+      </c>
+      <c r="O65" s="3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>45872</v>
+      </c>
+      <c r="B66" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C66" s="99"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="71"/>
+      <c r="H66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="3">
+        <v>144</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45874</v>
+      </c>
+      <c r="B67" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45877</v>
+      </c>
+      <c r="B68" s="44" t="str">
+        <f>TEXT(A68, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45878</v>
+      </c>
+      <c r="B69" s="44" t="str">
+        <f t="shared" ref="B69" si="1">TEXT(A69, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>45878</v>
+      </c>
+      <c r="B70" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C70" s="98"/>
+      <c r="D70" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" s="104"/>
+      <c r="F70" s="71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>45879</v>
+      </c>
+      <c r="B71" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C71" s="98"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="104"/>
+      <c r="F71" s="71"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45879</v>
+      </c>
+      <c r="B72" s="44" t="str">
+        <f t="shared" ref="B72" si="2">TEXT(A72, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="24"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B73" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B74" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>45885</v>
+      </c>
+      <c r="B75" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C75" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="3">
+        <v>72</v>
+      </c>
+      <c r="O75" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>45886</v>
+      </c>
+      <c r="B76" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C76" s="99"/>
+      <c r="D76" s="81"/>
+      <c r="F76" s="102"/>
+      <c r="H76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="3">
+        <v>144</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B77" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B78" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45893</v>
+      </c>
+      <c r="B79" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45895</v>
+      </c>
+      <c r="B80" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B81" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45900</v>
+      </c>
+      <c r="B82" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B83" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B84" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45907</v>
+      </c>
+      <c r="B85" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Sunday</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B86" s="44" t="str">
+        <f>TEXT(A86, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B87" s="44" t="str">
+        <f>TEXT(A87, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45914</v>
+      </c>
+      <c r="B88" s="44" t="str">
+        <f>TEXT(A88, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B89" s="44" t="str">
+        <f>TEXT(A89, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B90" s="44" t="str">
+        <f>TEXT(A90, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C90" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>45921</v>
+      </c>
+      <c r="B91" s="44" t="str">
+        <f>TEXT(A91, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B92" s="44" t="str">
+        <f>TEXT(A92, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B93" s="44" t="str">
+        <f>TEXT(A93, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>45928</v>
+      </c>
+      <c r="B94" s="44" t="str">
+        <f>TEXT(A94, "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B95" s="44" t="str">
+        <f>TEXT(A95, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="44"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="44"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="44"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="44"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="44"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="44"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="44"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="44"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="44"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="44"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="44"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="44"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="Q33:Q35"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C17:C18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1">
+    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="Club Target Day">
+      <formula>NOT(ISERROR(SEARCH("Club Target Day",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003F6F8B-BAAF-49C4-80DC-F0AA35A5CBAB}">
   <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y12" sqref="Y12"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5785,7 +8030,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -5861,7 +8106,7 @@
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -5952,7 +8197,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>28</v>
@@ -6048,7 +8293,7 @@
         <v>27</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O9" s="18" t="s">
         <v>36</v>
@@ -6069,10 +8314,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
@@ -6131,7 +8376,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
@@ -6156,7 +8401,7 @@
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F14" s="70"/>
       <c r="G14" s="70"/>
@@ -6179,7 +8424,7 @@
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
       <c r="E15" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15" s="66"/>
       <c r="G15" s="66"/>
@@ -6236,7 +8481,7 @@
         <v>27</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>28</v>
@@ -6267,7 +8512,7 @@
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" s="70"/>
       <c r="G19" s="70"/>
@@ -6290,7 +8535,7 @@
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F20" s="66"/>
       <c r="G20" s="66"/>
@@ -6320,10 +8565,10 @@
         <v>27</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J21" s="3">
         <v>27</v>
@@ -6338,7 +8583,7 @@
         <v>37</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -6359,7 +8604,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -6395,7 +8640,7 @@
         <v>27</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -6416,7 +8661,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -6485,7 +8730,7 @@
         <v>32</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -6506,7 +8751,7 @@
         <v>24</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -6524,7 +8769,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J29" s="3">
         <v>12</v>
@@ -6539,7 +8784,7 @@
         <v>32</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -6560,7 +8805,7 @@
         <v>27</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J30" s="3">
         <v>21</v>
@@ -6575,7 +8820,7 @@
         <v>27</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -6593,17 +8838,17 @@
         <v>56</v>
       </c>
       <c r="F31" s="74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="40"/>
       <c r="H31" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N31" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -6614,7 +8859,7 @@
       <c r="F32" s="74"/>
       <c r="G32" s="40"/>
       <c r="H32" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N32" s="71"/>
     </row>
@@ -6633,7 +8878,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -6651,7 +8896,7 @@
         <v>27</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J34" s="3">
         <v>45</v>
@@ -6666,7 +8911,7 @@
         <v>33</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -6705,13 +8950,13 @@
         <v>47</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L36" s="3">
         <v>600</v>
@@ -6735,7 +8980,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -6753,7 +8998,7 @@
         <v>27</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -6810,7 +9055,7 @@
         <v>24</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -6930,7 +9175,7 @@
       </c>
       <c r="P44" s="3">
         <f>(SMALL(M:M,2))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6948,10 +9193,10 @@
         <v>27</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>28</v>
@@ -6969,7 +9214,7 @@
         <v>21</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P45" s="51">
         <f>(SMALL(M:M,3))</f>
@@ -6992,7 +9237,7 @@
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>66</v>
@@ -7014,7 +9259,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>24</v>
@@ -7035,10 +9280,10 @@
         <v>27</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J48" s="3">
         <v>60</v>
@@ -7065,13 +9310,13 @@
         <v>20</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -7086,13 +9331,13 @@
         <v>20</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -7110,10 +9355,10 @@
         <v>27</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J51" s="3">
         <v>33</v>
@@ -7140,17 +9385,17 @@
         <v>22</v>
       </c>
       <c r="D52" s="81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F52" s="80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G52" s="41"/>
       <c r="H52" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J52" s="3">
         <v>60</v>
@@ -7178,7 +9423,7 @@
       <c r="F53" s="80"/>
       <c r="G53" s="41"/>
       <c r="H53" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -7192,7 +9437,7 @@
       <c r="C54" s="71"/>
       <c r="D54" s="81"/>
       <c r="F54" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G54" s="41"/>
       <c r="H54" s="5" t="s">
@@ -7229,7 +9474,7 @@
         <v>27</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>28</v>
@@ -7247,7 +9492,7 @@
         <v>21</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -7262,10 +9507,10 @@
         <v>20</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" s="70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F56" s="70"/>
       <c r="G56" s="70"/>
@@ -7288,7 +9533,7 @@
       <c r="C57" s="65"/>
       <c r="D57" s="65"/>
       <c r="E57" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F57" s="67"/>
       <c r="G57" s="67"/>
@@ -7318,7 +9563,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>66</v>
@@ -7357,7 +9602,7 @@
         <v>126</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>28</v>
@@ -7408,7 +9653,7 @@
         <v>21</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -7420,7 +9665,7 @@
         <v>Sunday</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="69"/>
       <c r="E61" s="69"/>
@@ -7524,7 +9769,7 @@
       <c r="C69" s="67"/>
       <c r="D69" s="67"/>
       <c r="E69" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F69" s="66"/>
       <c r="G69" s="66"/>
@@ -7565,7 +9810,7 @@
       <c r="C71" s="65"/>
       <c r="D71" s="65"/>
       <c r="E71" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F71" s="67"/>
       <c r="G71" s="67"/>
@@ -7646,7 +9891,7 @@
         <v>21</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -7700,7 +9945,7 @@
         <v>24</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>28</v>
@@ -7751,7 +9996,7 @@
         <v>19</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -7787,10 +10032,10 @@
         <v>46</v>
       </c>
       <c r="F78" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>83</v>
@@ -7811,7 +10056,7 @@
         <v>50</v>
       </c>
       <c r="F79" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>66</v>
@@ -7822,8 +10067,14 @@
       <c r="J79" s="3">
         <v>60</v>
       </c>
+      <c r="K79" s="3">
+        <v>560</v>
+      </c>
       <c r="L79" s="3">
         <v>600</v>
+      </c>
+      <c r="M79" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -7840,6 +10091,24 @@
       <c r="D80" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="H80" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="3">
+        <v>60</v>
+      </c>
+      <c r="K80" s="3">
+        <v>567</v>
+      </c>
+      <c r="L80" s="3">
+        <v>600</v>
+      </c>
+      <c r="M80" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
@@ -7877,7 +10146,7 @@
         <v>24</v>
       </c>
       <c r="F82" s="61" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -7894,6 +10163,24 @@
       <c r="D83" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="H83" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J83" s="3">
+        <v>60</v>
+      </c>
+      <c r="K83" s="3">
+        <v>570</v>
+      </c>
+      <c r="L83" s="3">
+        <v>600</v>
+      </c>
+      <c r="M83" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -7924,7 +10211,7 @@
       <c r="C85" s="65"/>
       <c r="D85" s="65"/>
       <c r="E85" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F85" s="67"/>
       <c r="G85" s="67"/>
@@ -7951,7 +10238,7 @@
         <v>49</v>
       </c>
       <c r="F86" s="58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G86" s="40"/>
       <c r="H86" s="5" t="s">
@@ -7963,8 +10250,14 @@
       <c r="J86" s="3">
         <v>60</v>
       </c>
+      <c r="K86" s="3">
+        <v>563</v>
+      </c>
       <c r="L86" s="3">
         <v>600</v>
+      </c>
+      <c r="M86" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -7999,6 +10292,24 @@
       <c r="D88" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="H88" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="I88" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="J88" s="71">
+        <v>60</v>
+      </c>
+      <c r="K88" s="71">
+        <v>553</v>
+      </c>
+      <c r="L88" s="71">
+        <v>600</v>
+      </c>
+      <c r="M88" s="71">
+        <v>23</v>
+      </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
@@ -8017,6 +10328,12 @@
       <c r="E89" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
+      <c r="J89" s="71"/>
+      <c r="K89" s="71"/>
+      <c r="L89" s="71"/>
+      <c r="M89" s="71"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="62">
@@ -8036,7 +10353,7 @@
         <v>24</v>
       </c>
       <c r="F90" s="61" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -8053,6 +10370,9 @@
       <c r="D91" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G91" s="39" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
@@ -8087,7 +10407,7 @@
         <v>27</v>
       </c>
       <c r="E93" s="68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F93" s="68"/>
       <c r="G93" s="68"/>
@@ -8118,10 +10438,10 @@
       </c>
       <c r="G94" s="40"/>
       <c r="H94" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J94" s="3">
         <v>60</v>
@@ -8175,16 +10495,16 @@
         <v>22</v>
       </c>
       <c r="D97" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="F97" s="58" t="s">
-        <v>134</v>
-      </c>
       <c r="H97" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J97" s="3">
         <v>60</v>
@@ -8262,10 +10582,10 @@
         <v>24</v>
       </c>
       <c r="F101" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G101" s="61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -8316,19 +10636,13 @@
         <v>119</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J104" s="3">
-        <v>60</v>
-      </c>
-      <c r="L104" s="3">
-        <v>600</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -8393,7 +10707,7 @@
       <c r="C108" s="65"/>
       <c r="D108" s="65"/>
       <c r="E108" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F108" s="67"/>
       <c r="G108" s="67"/>
@@ -8421,10 +10735,10 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="40" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>28</v>
@@ -8470,19 +10784,29 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="22">
         <v>45744</v>
       </c>
-      <c r="B112" s="1" t="str">
+      <c r="B112" s="45" t="str">
         <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="D112" s="48"/>
+      <c r="E112" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="70"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="70"/>
+      <c r="M112" s="70"/>
+      <c r="N112" s="70"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="62">
@@ -8502,7 +10826,7 @@
         <v>24</v>
       </c>
       <c r="F113" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -8523,7 +10847,7 @@
         <v>54</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>83</v>
@@ -8605,199 +10929,56 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>45758</v>
-      </c>
-      <c r="B119" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Friday</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A119" s="2"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>45760</v>
-      </c>
-      <c r="B120" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A120" s="2"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>45762</v>
-      </c>
-      <c r="B121" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G121" s="39" t="s">
-        <v>129</v>
-      </c>
+      <c r="A121" s="2"/>
+      <c r="G121" s="101"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>45765</v>
-      </c>
-      <c r="B122" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Friday</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A122" s="2"/>
+      <c r="G122" s="101"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>45767</v>
-      </c>
-      <c r="B123" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A123" s="2"/>
+      <c r="G123" s="101"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>45769</v>
-      </c>
-      <c r="B124" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A124" s="2"/>
+      <c r="G124" s="101"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>45772</v>
-      </c>
-      <c r="B125" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Friday</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A125" s="2"/>
+      <c r="G125" s="101"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>45774</v>
-      </c>
-      <c r="B126" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A126" s="2"/>
+      <c r="G126" s="101"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>45776</v>
-      </c>
-      <c r="B127" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A127" s="2"/>
+      <c r="G127" s="101"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>45779</v>
-      </c>
-      <c r="B128" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Friday</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A128" s="2"/>
+      <c r="G128" s="101"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>45781</v>
-      </c>
-      <c r="B129" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Sunday</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" s="39" t="s">
-        <v>130</v>
-      </c>
+      <c r="A129" s="2"/>
+      <c r="G129" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="46">
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="E112:N112"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="L88:L89"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="C52:C54"/>
@@ -8839,7 +11020,7 @@
     <mergeCell ref="E56:N56"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8849,7 +11030,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8857,15 +11038,15 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="50" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="56" priority="64" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="51" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="55" priority="65" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="colorScale" priority="197">
+    <cfRule type="colorScale" priority="211">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8875,7 +11056,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="198">
+    <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8885,15 +11066,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C31 C33:C52 C55:C61 C66:C129">
-    <cfRule type="containsText" dxfId="54" priority="77" operator="containsText" text="University">
+    <cfRule type="containsText" dxfId="54" priority="91" operator="containsText" text="University">
       <formula>NOT(ISERROR(SEARCH("University",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="78" operator="containsText" text="Yelverton">
+    <cfRule type="containsText" dxfId="53" priority="92" operator="containsText" text="Yelverton">
       <formula>NOT(ISERROR(SEARCH("Yelverton",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="colorScale" priority="173">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8901,6 +11092,188 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C8">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C11 C15:C16 C18 C20:C31 C33:C35 C47:C52 C37:C45 C55:C61 C66:C117">
+    <cfRule type="colorScale" priority="527">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="528">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C14">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118:C120">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
@@ -8911,9 +11284,17 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C8">
-    <cfRule type="colorScale" priority="218">
+  <conditionalFormatting sqref="C124">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8923,7 +11304,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="219">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8932,16 +11313,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C11 C15:C16 C18 C20:C31 C33:C35 C47:C52 C37:C45 C55:C61 C66:C117">
-    <cfRule type="colorScale" priority="514">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="513">
+  <conditionalFormatting sqref="C127">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8951,279 +11324,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="colorScale" priority="166">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="165">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:C120">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122:C123">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125:C126">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128:C129">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9233,67 +11334,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="52" priority="16" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",D36)))</formula>
+    <cfRule type="containsText" dxfId="52" priority="28" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="51" priority="29" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="14" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D36)))</formula>
+    <cfRule type="containsText" dxfId="50" priority="30" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="49" priority="21" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="22" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70 D72:E84 D86:E107">
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D70)))</formula>
+    <cfRule type="containsText" dxfId="46" priority="18" operator="containsText" text="Lipson">
+      <formula>NOT(ISERROR(SEARCH("Lipson",D70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="Widewell">
+    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="Widewell">
       <formula>NOT(ISERROR(SEARCH("Widewell",D70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Lipson">
-      <formula>NOT(ISERROR(SEARCH("Lipson",D70)))</formula>
+    <cfRule type="containsText" dxfId="44" priority="20" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",D109)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="Lipson">
+      <formula>NOT(ISERROR(SEARCH("Lipson",D109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="Widewell">
+    <cfRule type="containsText" dxfId="42" priority="16" operator="containsText" text="Widewell">
       <formula>NOT(ISERROR(SEARCH("Widewell",D109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Lipson">
-      <formula>NOT(ISERROR(SEARCH("Lipson",D109)))</formula>
+    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",D109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E31 E32 D33:E35 E36 D37:E44 D45 E45:E46 D47:E56 E57 D58:E60 D66:E66 D67 D68:E68 E69:E71 E85 E108:E109 D110:E1048576">
-    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="Widewell">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="Lipson">
+      <formula>NOT(ISERROR(SEARCH("Lipson",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Widewell">
       <formula>NOT(ISERROR(SEARCH("Widewell",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="Lipson">
-      <formula>NOT(ISERROR(SEARCH("Lipson",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="YMCA">
+    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G2">
-    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="Club Target Day">
+    <cfRule type="containsText" dxfId="37" priority="59" operator="containsText" text="Club Target Day">
       <formula>NOT(ISERROR(SEARCH("Club Target Day",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9305,7 +11406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="colorScale" priority="393">
+    <cfRule type="colorScale" priority="407">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9315,7 +11416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9324,8 +11425,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J110:J1048576 J94:J107 J1:J55 J58:J70 J72:J84 J86:J92">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="J110:J111 J94:J107 J1:J55 J58:J70 J72:J84 J86:J88 J90:J92 J113:J1048576">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9334,8 +11435,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J110:J1048576 J94:J107 J6:J7 J1 J9 J11:J12 J4 J16:J18 J21:J55 J70 J58:J68 J72:J84 J86:J92">
-    <cfRule type="colorScale" priority="223">
+  <conditionalFormatting sqref="J110:J111 J94:J107 J6:J7 J1 J9 J11:J12 J4 J16:J18 J21:J55 J70 J58:J68 J72:J84 J86:J88 J90:J92 J113:J1048576">
+    <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9345,7 +11446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="colorScale" priority="394">
+    <cfRule type="colorScale" priority="408">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9357,7 +11458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9368,8 +11469,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M110:M1048576 M94:M107 M1:M41 M43:M55 M58:M70 M72:M84 M86:M92">
-    <cfRule type="colorScale" priority="405">
+  <conditionalFormatting sqref="M110:M111 M94:M107 M1:M41 M43:M55 M58:M70 M72:M84 M86:M88 M90:M92 M113:M1048576">
+    <cfRule type="colorScale" priority="419">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9380,13 +11481,133 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M110:M1048576 M94:M107 M6:M7 M1 M9 M11:M12 M4 M16:M18 M43:M55 M21:M41 M70 M58:M68 M72:M84 M86:M92">
-    <cfRule type="colorScale" priority="408">
+  <conditionalFormatting sqref="M110:M111 M94:M107 M6:M7 M1 M9 M11:M12 M4 M16:M18 M43:M55 M21:M41 M70 M58:M68 M72:M84 M86:M88 M90:M92 M113:M1048576">
+    <cfRule type="colorScale" priority="422">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -9396,14 +11617,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF9BC55-E030-4D83-A3CE-E85DC3922C40}">
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9441,7 +11662,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -9499,7 +11720,7 @@
         <v>44</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -10464,7 +12685,7 @@
         <v>27</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>16</v>
@@ -10554,7 +12775,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="24"/>
       <c r="H36" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>16</v>
@@ -10569,7 +12790,7 @@
         <v>150</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -10801,7 +13022,7 @@
         <v>91</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S46" s="51">
         <f>(SMALL(P:P,3))</f>
@@ -10884,7 +13105,7 @@
         <v>91</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>74</v>
@@ -10974,7 +13195,7 @@
         <v>91</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>28</v>
@@ -11010,7 +13231,7 @@
         <v>91</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -11052,7 +13273,7 @@
         <v>91</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>118</v>
@@ -11076,7 +13297,7 @@
         <v>43</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -11100,7 +13321,7 @@
         <v>91</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>117</v>
@@ -11188,7 +13409,7 @@
         <v>91</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q59" s="23" t="s">
         <v>94</v>
@@ -11268,10 +13489,10 @@
         <v>91</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
@@ -11289,7 +13510,7 @@
         <v>41</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -11316,7 +13537,7 @@
         <v>87</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>16</v>
@@ -11334,7 +13555,7 @@
         <v>38</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -11344,10 +13565,10 @@
       <c r="D64" s="71"/>
       <c r="E64" s="85"/>
       <c r="F64" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>16</v>
@@ -11380,7 +13601,7 @@
         <v>27</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>16</v>
@@ -11398,7 +13619,7 @@
         <v>34</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -11408,10 +13629,10 @@
       <c r="D66" s="71"/>
       <c r="E66" s="85"/>
       <c r="F66" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
@@ -11444,13 +13665,13 @@
         <v>27</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -11474,7 +13695,7 @@
         <v>87</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>16</v>
@@ -11492,7 +13713,7 @@
         <v>39</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -11516,7 +13737,7 @@
         <v>91</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>119</v>
@@ -11537,7 +13758,7 @@
         <v>216</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -11570,7 +13791,7 @@
         <v>720</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -11594,10 +13815,10 @@
         <v>91</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I71" s="24" t="s">
         <v>16</v>
@@ -11618,7 +13839,7 @@
         <v>34</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -11651,7 +13872,7 @@
         <v>700</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -11672,7 +13893,7 @@
         <v>27</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>16</v>
@@ -11721,7 +13942,7 @@
         <v>30</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -11732,7 +13953,7 @@
       <c r="F75" s="89"/>
       <c r="G75" s="43"/>
       <c r="H75" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>16</v>
@@ -11747,7 +13968,7 @@
         <v>150</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -11758,7 +13979,7 @@
       <c r="F76" s="89"/>
       <c r="G76" s="43"/>
       <c r="H76" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
@@ -11773,7 +13994,7 @@
         <v>150</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -11816,7 +14037,7 @@
         <v>34</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -11837,7 +14058,7 @@
         <v>91</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H78" s="23" t="s">
         <v>119</v>
@@ -11870,7 +14091,7 @@
         <v>13</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -11894,10 +14115,10 @@
         <v>91</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>12</v>
@@ -11931,7 +14152,7 @@
         <v>91</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -11955,10 +14176,10 @@
         <v>91</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H82" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I82" s="71" t="s">
         <v>16</v>
@@ -11979,7 +14200,7 @@
         <v>27</v>
       </c>
       <c r="Q82" s="71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -12003,7 +14224,7 @@
         <v>91</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H83" s="71"/>
       <c r="I83" s="71"/>
@@ -12037,7 +14258,7 @@
       </c>
       <c r="G84" s="30"/>
       <c r="H84" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>15</v>
@@ -12070,10 +14291,10 @@
         <v>91</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>16</v>
@@ -12091,7 +14312,7 @@
         <v>30</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -12115,10 +14336,10 @@
         <v>91</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H86" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I86" s="71" t="s">
         <v>16</v>
@@ -12139,7 +14360,7 @@
         <v>26</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -12163,7 +14384,7 @@
         <v>91</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H87" s="71"/>
       <c r="I87" s="71"/>
@@ -12254,7 +14475,7 @@
         <v>91</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -12272,10 +14493,10 @@
         <v>24</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -12293,10 +14514,10 @@
         <v>24</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -12317,7 +14538,7 @@
         <v>91</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -12394,14 +14615,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C56 D35:D36 D15 D28 C27:C36 C24:C25 C2:C20">
-    <cfRule type="colorScale" priority="145">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -12412,9 +14625,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C63 C65 C67">
-    <cfRule type="colorScale" priority="355">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12422,6 +14633,8 @@
         <color theme="7"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C63 C65 C67">
     <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="min"/>
@@ -12430,6 +14643,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="355">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -12547,14 +14768,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C76">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -12563,6 +14776,14 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4"/>
+        <color theme="7"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -12627,11 +14848,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50 D52:D53 D55:D56">
-    <cfRule type="containsText" dxfId="28" priority="124" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="28" priority="123" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="124" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="123" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:D63 D65 D67:D71">
@@ -12643,11 +14864,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:D87 D89:D94">
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="24" priority="32" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",D78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",D78)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="32" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:E76">
@@ -12659,11 +14880,11 @@
     <cfRule type="containsText" dxfId="21" priority="134" operator="containsText" text="YMCA">
       <formula>NOT(ISERROR(SEARCH("YMCA",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="136" operator="containsText" text="Wide">
+    <cfRule type="containsText" dxfId="20" priority="135" operator="containsText" text="Lip">
+      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="136" operator="containsText" text="Wide">
       <formula>NOT(ISERROR(SEARCH("Wide",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="135" operator="containsText" text="Lip">
-      <formula>NOT(ISERROR(SEARCH("Lip",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
@@ -12678,14 +14899,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="15" priority="121" operator="containsText" text="Wide">
-      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="119" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="120" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="119" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E52)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="121" operator="containsText" text="Wide">
+      <formula>NOT(ISERROR(SEARCH("Wide",E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
@@ -12711,11 +14932,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E76">
-    <cfRule type="containsText" dxfId="6" priority="46" operator="containsText" text="Lip">
+    <cfRule type="containsText" dxfId="6" priority="45" operator="containsText" text="YMCA">
+      <formula>NOT(ISERROR(SEARCH("YMCA",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="46" operator="containsText" text="Lip">
       <formula>NOT(ISERROR(SEARCH("Lip",E74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="45" operator="containsText" text="YMCA">
-      <formula>NOT(ISERROR(SEARCH("YMCA",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
